--- a/us_states_cases_per_100k_transformed.xlsx
+++ b/us_states_cases_per_100k_transformed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\aberk104.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5B3D5E31-BD6C-4490-8159-3AFEE71AF765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0698D3-FC07-454D-B923-AE1328DC62DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="us_states_cases_per_100k" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="us_states_cases_per_100k" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="91">
   <si>
     <t>State</t>
   </si>
@@ -241,11 +257,65 @@
   <si>
     <t>,</t>
   </si>
+  <si>
+    <t>Max of 1/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 4/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 2/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 3/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 5/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 6/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 7/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 8/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 9/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 10/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 11/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 12/1/2020</t>
+  </si>
+  <si>
+    <t>Max of 1/1/2021</t>
+  </si>
+  <si>
+    <t>Max of 2/1/2021</t>
+  </si>
+  <si>
+    <t>Max of 3/1/2021</t>
+  </si>
+  <si>
+    <t>Max of 4/1/2021</t>
+  </si>
+  <si>
+    <t>Max of 5/1/2021</t>
+  </si>
+  <si>
+    <t>Max of 6/1/2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,11 +793,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -784,6 +855,1371 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alan" refreshedDate="44411.406024999997" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="53" xr:uid="{BB99E365-DBAA-40CF-A4BF-A817E0CABFCB}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:T1048576" sheet="us_states_cases_per_100k"/>
+  </cacheSource>
+  <cacheFields count="20">
+    <cacheField name="State" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="id" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="72"/>
+    </cacheField>
+    <cacheField name="1/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.02"/>
+    </cacheField>
+    <cacheField name="2/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.66"/>
+    </cacheField>
+    <cacheField name="3/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="7.27" maxValue="377.26"/>
+    </cacheField>
+    <cacheField name="4/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="23.43" maxValue="1155.79"/>
+    </cacheField>
+    <cacheField name="5/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.27" maxValue="649.41"/>
+    </cacheField>
+    <cacheField name="6/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="17.8" maxValue="831.48"/>
+    </cacheField>
+    <cacheField name="7/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="32.03" maxValue="1476.22"/>
+    </cacheField>
+    <cacheField name="8/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="32.659999999999997" maxValue="817.32"/>
+    </cacheField>
+    <cacheField name="9/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="19.899999999999999" maxValue="1287.26"/>
+    </cacheField>
+    <cacheField name="10/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="66.400000000000006" maxValue="2833.03"/>
+    </cacheField>
+    <cacheField name="11/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="192.34" maxValue="4535.6499999999996"/>
+    </cacheField>
+    <cacheField name="12/1/2020" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="237.28" maxValue="2983.24"/>
+    </cacheField>
+    <cacheField name="1/1/2021" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="297.33" maxValue="3282.49"/>
+    </cacheField>
+    <cacheField name="2/1/2021" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="115.92" maxValue="1434.76"/>
+    </cacheField>
+    <cacheField name="3/1/2021" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="158.46" maxValue="1286.02"/>
+    </cacheField>
+    <cacheField name="4/1/2021" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="176.89" maxValue="1882.97"/>
+    </cacheField>
+    <cacheField name="5/1/2021" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="120.53" maxValue="561.44000000000005"/>
+    </cacheField>
+    <cacheField name="6/1/2021" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-92.97" maxValue="168.33"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="53">
+  <r>
+    <s v="Alabama"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="19.88"/>
+    <n v="120.79"/>
+    <n v="216.63"/>
+    <n v="399.92"/>
+    <n v="988.76"/>
+    <n v="763"/>
+    <n v="570.09"/>
+    <n v="748.05"/>
+    <n v="1139.25"/>
+    <n v="2223.2399999999998"/>
+    <n v="1958.75"/>
+    <n v="669.01"/>
+    <n v="440.58"/>
+    <n v="249.47"/>
+    <n v="308.16000000000003"/>
+    <n v="77.98"/>
+  </r>
+  <r>
+    <s v="Alaska"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="18.13"/>
+    <n v="30"/>
+    <n v="15.82"/>
+    <n v="90.4"/>
+    <n v="346.75"/>
+    <n v="327.25"/>
+    <n v="358.88"/>
+    <n v="1028.0999999999999"/>
+    <n v="2203.46"/>
+    <n v="1954.35"/>
+    <n v="987.88"/>
+    <n v="526.46"/>
+    <n v="642.63"/>
+    <n v="687.08"/>
+    <n v="276.66000000000003"/>
+    <n v="59.72"/>
+  </r>
+  <r>
+    <s v="Arizona"/>
+    <n v="4"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="18.14"/>
+    <n v="88.79"/>
+    <n v="171.82"/>
+    <n v="831.48"/>
+    <n v="1324.32"/>
+    <n v="388.14"/>
+    <n v="232.75"/>
+    <n v="383.85"/>
+    <n v="1133.8"/>
+    <n v="2751.63"/>
+    <n v="3282.49"/>
+    <n v="820.19"/>
+    <n v="343.69"/>
+    <n v="289.25"/>
+    <n v="265.02"/>
+    <n v="69.27"/>
+  </r>
+  <r>
+    <s v="Arkansas"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="18.73"/>
+    <n v="90.22"/>
+    <n v="131.88999999999999"/>
+    <n v="449.07"/>
+    <n v="721.69"/>
+    <n v="621.38"/>
+    <n v="746.23"/>
+    <n v="946.13"/>
+    <n v="1499.87"/>
+    <n v="2250.65"/>
+    <n v="2328.7199999999998"/>
+    <n v="901.44"/>
+    <n v="265.08"/>
+    <n v="176.89"/>
+    <n v="187.81"/>
+    <n v="82.75"/>
+  </r>
+  <r>
+    <s v="California"/>
+    <n v="6"/>
+    <n v="0.01"/>
+    <n v="0.06"/>
+    <n v="21.64"/>
+    <n v="105.94"/>
+    <n v="158.44"/>
+    <n v="301.07"/>
+    <n v="683.19"/>
+    <n v="531.80999999999995"/>
+    <n v="274.63"/>
+    <n v="288.64"/>
+    <n v="763.68"/>
+    <n v="2707.7"/>
+    <n v="2570.17"/>
+    <n v="620.9"/>
+    <n v="251.56"/>
+    <n v="185.07"/>
+    <n v="120.53"/>
+    <n v="30.08"/>
+  </r>
+  <r>
+    <s v="Colorado"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="51.79"/>
+    <n v="211.6"/>
+    <n v="193.24"/>
+    <n v="109.7"/>
+    <n v="246.81"/>
+    <n v="187.9"/>
+    <n v="230.23"/>
+    <n v="636.57000000000005"/>
+    <n v="2193.6999999999998"/>
+    <n v="1750.64"/>
+    <n v="1066.19"/>
+    <n v="585.97"/>
+    <n v="585.62"/>
+    <n v="848.15"/>
+    <n v="561.44000000000005"/>
+    <n v="128.16999999999999"/>
+  </r>
+  <r>
+    <s v="Connecticut"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="86.75"/>
+    <n v="681.43"/>
+    <n v="402.14"/>
+    <n v="119.61"/>
+    <n v="91.4"/>
+    <n v="85.11"/>
+    <n v="129.54"/>
+    <n v="378.74"/>
+    <n v="1278.1099999999999"/>
+    <n v="1897.23"/>
+    <n v="1783.58"/>
+    <n v="829.82"/>
+    <n v="858.08"/>
+    <n v="786.06"/>
+    <n v="224.85"/>
+    <n v="27.98"/>
+  </r>
+  <r>
+    <s v="Delaware"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="32.22"/>
+    <n v="445.98"/>
+    <n v="481.24"/>
+    <n v="199.61"/>
+    <n v="334.77"/>
+    <n v="266.77999999999997"/>
+    <n v="321.63"/>
+    <n v="438.2"/>
+    <n v="1081.17"/>
+    <n v="2202.34"/>
+    <n v="2082.4299999999998"/>
+    <n v="881.66"/>
+    <n v="808.43"/>
+    <n v="970.05"/>
+    <n v="450.63"/>
+    <n v="46.06"/>
+  </r>
+  <r>
+    <s v="District of Columbia"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="71.790000000000006"/>
+    <n v="555.15"/>
+    <n v="649.41"/>
+    <n v="221.31"/>
+    <n v="260.89999999999998"/>
+    <n v="270.61"/>
+    <n v="193.46"/>
+    <n v="281.33999999999997"/>
+    <n v="621.57000000000005"/>
+    <n v="1077.67"/>
+    <n v="1144.0899999999999"/>
+    <n v="540.36"/>
+    <n v="567.77"/>
+    <n v="461.75"/>
+    <n v="174.17"/>
+    <n v="37.71"/>
+  </r>
+  <r>
+    <s v="Florida"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="31.3"/>
+    <n v="125.08"/>
+    <n v="104.34"/>
+    <n v="446.98"/>
+    <n v="1476.22"/>
+    <n v="710.76"/>
+    <n v="385.57"/>
+    <n v="445.86"/>
+    <n v="913.6"/>
+    <n v="1504.29"/>
+    <n v="1848.17"/>
+    <n v="872.14"/>
+    <n v="689.54"/>
+    <n v="816.15"/>
+    <n v="405.33"/>
+    <n v="-92.97"/>
+  </r>
+  <r>
+    <s v="Georgia"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="38.42"/>
+    <n v="198.98"/>
+    <n v="183.16"/>
+    <n v="300.87"/>
+    <n v="878.11"/>
+    <n v="773.87"/>
+    <n v="441.07"/>
+    <n v="664.18"/>
+    <n v="762.67"/>
+    <n v="1771.27"/>
+    <n v="2251.5500000000002"/>
+    <n v="901.75"/>
+    <n v="497.97"/>
+    <n v="379.47"/>
+    <n v="217.83"/>
+    <n v="45.28"/>
+  </r>
+  <r>
+    <s v="Hawaii"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15.39"/>
+    <n v="26.46"/>
+    <n v="2.27"/>
+    <n v="17.8"/>
+    <n v="81.569999999999993"/>
+    <n v="436.96"/>
+    <n v="282.27999999999997"/>
+    <n v="182.23"/>
+    <n v="192.34"/>
+    <n v="237.28"/>
+    <n v="297.33"/>
+    <n v="115.92"/>
+    <n v="158.46"/>
+    <n v="205.32"/>
+    <n v="155.85"/>
+    <n v="45.21"/>
+  </r>
+  <r>
+    <s v="Idaho"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28.6"/>
+    <n v="81.02"/>
+    <n v="45.62"/>
+    <n v="177.75"/>
+    <n v="800.88"/>
+    <n v="620.03"/>
+    <n v="559.66999999999996"/>
+    <n v="1209.72"/>
+    <n v="2031.48"/>
+    <n v="2133.1"/>
+    <n v="1162.2"/>
+    <n v="459.3"/>
+    <n v="512.97"/>
+    <n v="385.13"/>
+    <n v="236.96"/>
+    <n v="82.05"/>
+  </r>
+  <r>
+    <s v="Illinois"/>
+    <n v="17"/>
+    <n v="0.02"/>
+    <n v="0.01"/>
+    <n v="46.74"/>
+    <n v="366.25"/>
+    <n v="528.16"/>
+    <n v="187.89"/>
+    <n v="281.29000000000002"/>
+    <n v="444.73"/>
+    <n v="462.46"/>
+    <n v="933.63"/>
+    <n v="2429.41"/>
+    <n v="1857.68"/>
+    <n v="1269.58"/>
+    <n v="479.35"/>
+    <n v="454.33"/>
+    <n v="706.76"/>
+    <n v="370.75"/>
+    <n v="40.53"/>
+  </r>
+  <r>
+    <s v="Indiana"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="32.08"/>
+    <n v="234.65"/>
+    <n v="255.4"/>
+    <n v="166.69"/>
+    <n v="310.37"/>
+    <n v="419.67"/>
+    <n v="383.43"/>
+    <n v="877.49"/>
+    <n v="2355.85"/>
+    <n v="2546.02"/>
+    <n v="1699.76"/>
+    <n v="517.09"/>
+    <n v="367.03"/>
+    <n v="500.42"/>
+    <n v="343.25"/>
+    <n v="79.650000000000006"/>
+  </r>
+  <r>
+    <s v="Iowa"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15.61"/>
+    <n v="208.35"/>
+    <n v="391.05"/>
+    <n v="298.74"/>
+    <n v="489"/>
+    <n v="642.53"/>
+    <n v="752.14"/>
+    <n v="1239.67"/>
+    <n v="3191.98"/>
+    <n v="1601.01"/>
+    <n v="1181.56"/>
+    <n v="534.33000000000004"/>
+    <n v="468.5"/>
+    <n v="421.24"/>
+    <n v="206.34"/>
+    <n v="34.51"/>
+  </r>
+  <r>
+    <s v="Kansas"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14.81"/>
+    <n v="131.72999999999999"/>
+    <n v="189.69"/>
+    <n v="161.72"/>
+    <n v="459.24"/>
+    <n v="520.30999999999995"/>
+    <n v="597.37"/>
+    <n v="878.66"/>
+    <n v="2507.15"/>
+    <n v="2213.4"/>
+    <n v="1776.04"/>
+    <n v="652.34"/>
+    <n v="267.51"/>
+    <n v="223.15"/>
+    <n v="158.18"/>
+    <n v="51.98"/>
+  </r>
+  <r>
+    <s v="Kentucky"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13.09"/>
+    <n v="91.39"/>
+    <n v="116.05"/>
+    <n v="132.69"/>
+    <n v="334.34"/>
+    <n v="441.72"/>
+    <n v="487.06"/>
+    <n v="808.15"/>
+    <n v="1642.56"/>
+    <n v="1899.16"/>
+    <n v="2175.6"/>
+    <n v="921.8"/>
+    <n v="482.13"/>
+    <n v="385.21"/>
+    <n v="279.35000000000002"/>
+    <n v="71.77"/>
+  </r>
+  <r>
+    <s v="Louisiana"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="112.44"/>
+    <n v="489.66"/>
+    <n v="257.14"/>
+    <n v="390.36"/>
+    <n v="1249.3399999999999"/>
+    <n v="697.76"/>
+    <n v="398.56"/>
+    <n v="412.02"/>
+    <n v="982.55"/>
+    <n v="1778.99"/>
+    <n v="1832.45"/>
+    <n v="632.79"/>
+    <n v="318.45999999999998"/>
+    <n v="293.02"/>
+    <n v="259.87"/>
+    <n v="100.24"/>
+  </r>
+  <r>
+    <s v="Maine"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="22.24"/>
+    <n v="58.13"/>
+    <n v="90.28"/>
+    <n v="68.12"/>
+    <n v="48.37"/>
+    <n v="45.07"/>
+    <n v="63.49"/>
+    <n v="93.73"/>
+    <n v="373.54"/>
+    <n v="913.42"/>
+    <n v="1110.06"/>
+    <n v="389.77"/>
+    <n v="430.87"/>
+    <n v="786.06"/>
+    <n v="482.03"/>
+    <n v="55.79"/>
+  </r>
+  <r>
+    <s v="Maryland"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26.91"/>
+    <n v="326.41000000000003"/>
+    <n v="512.05999999999995"/>
+    <n v="237.91"/>
+    <n v="335.99"/>
+    <n v="321.10000000000002"/>
+    <n v="266.70999999999998"/>
+    <n v="329.86"/>
+    <n v="859.88"/>
+    <n v="1264.71"/>
+    <n v="1259.71"/>
+    <n v="447.32"/>
+    <n v="473.48"/>
+    <n v="583.77"/>
+    <n v="202.62"/>
+    <n v="20.98"/>
+  </r>
+  <r>
+    <s v="Massachusetts"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="0.01"/>
+    <n v="94.15"/>
+    <n v="790.69"/>
+    <n v="494.46"/>
+    <n v="169.52"/>
+    <n v="124.18"/>
+    <n v="155.35"/>
+    <n v="50.97"/>
+    <n v="376.39"/>
+    <n v="960.98"/>
+    <n v="2120.17"/>
+    <n v="2117.34"/>
+    <n v="812.57"/>
+    <n v="774.29"/>
+    <n v="759.51"/>
+    <n v="255.65"/>
+    <n v="26.9"/>
+  </r>
+  <r>
+    <s v="Michigan"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="75.7"/>
+    <n v="334.6"/>
+    <n v="158.84"/>
+    <n v="133.91"/>
+    <n v="197.49"/>
+    <n v="222.39"/>
+    <n v="247.2"/>
+    <n v="586.37"/>
+    <n v="1894.73"/>
+    <n v="1375.03"/>
+    <n v="806.1"/>
+    <n v="363.82"/>
+    <n v="994.9"/>
+    <n v="1882.97"/>
+    <n v="551.96"/>
+    <n v="49.79"/>
+  </r>
+  <r>
+    <s v="Minnesota"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11.02"/>
+    <n v="78.98"/>
+    <n v="345.64"/>
+    <n v="201.14"/>
+    <n v="318.32"/>
+    <n v="375.19"/>
+    <n v="407.85"/>
+    <n v="864.61"/>
+    <n v="2984.25"/>
+    <n v="1691.74"/>
+    <n v="815.11"/>
+    <n v="399.32"/>
+    <n v="612.37"/>
+    <n v="986.56"/>
+    <n v="448.12"/>
+    <n v="39.08"/>
+  </r>
+  <r>
+    <s v="Mississippi"/>
+    <n v="28"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="31.64"/>
+    <n v="198.5"/>
+    <n v="293.32"/>
+    <n v="396.69"/>
+    <n v="1063.7"/>
+    <n v="817.32"/>
+    <n v="514.64"/>
+    <n v="741.91"/>
+    <n v="1118.0999999999999"/>
+    <n v="2111.96"/>
+    <n v="1998.8"/>
+    <n v="668.43"/>
+    <n v="349.54"/>
+    <n v="228.08"/>
+    <n v="196.3"/>
+    <n v="47.34"/>
+  </r>
+  <r>
+    <s v="Missouri"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21.93"/>
+    <n v="100.94"/>
+    <n v="93.16"/>
+    <n v="145.87"/>
+    <n v="467.9"/>
+    <n v="572.78"/>
+    <n v="710.6"/>
+    <n v="972.56"/>
+    <n v="2031.81"/>
+    <n v="1684.12"/>
+    <n v="1314.28"/>
+    <n v="407.32"/>
+    <n v="1044.69"/>
+    <n v="195.13"/>
+    <n v="235.55"/>
+    <n v="98.6"/>
+  </r>
+  <r>
+    <s v="Montana"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="18.260000000000002"/>
+    <n v="23.43"/>
+    <n v="5.81"/>
+    <n v="41.69"/>
+    <n v="277.62"/>
+    <n v="319.39999999999998"/>
+    <n v="529.32000000000005"/>
+    <n v="1809.77"/>
+    <n v="2716.69"/>
+    <n v="1793.45"/>
+    <n v="1130.76"/>
+    <n v="556.9"/>
+    <n v="431.46"/>
+    <n v="392.35"/>
+    <n v="276.42"/>
+    <n v="86.7"/>
+  </r>
+  <r>
+    <s v="Nebraska"/>
+    <n v="31"/>
+    <n v="0"/>
+    <n v="0.66"/>
+    <n v="9.48"/>
+    <n v="210.71"/>
+    <n v="498.04"/>
+    <n v="259.64999999999998"/>
+    <n v="357.74"/>
+    <n v="411.72"/>
+    <n v="574.91999999999996"/>
+    <n v="1284.58"/>
+    <n v="2971.29"/>
+    <n v="1975.63"/>
+    <n v="1221.92"/>
+    <n v="486.11"/>
+    <n v="423.35"/>
+    <n v="521.23"/>
+    <n v="180.58"/>
+    <n v="21.62"/>
+  </r>
+  <r>
+    <s v="Nevada"/>
+    <n v="32"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="35.85"/>
+    <n v="126.91"/>
+    <n v="115.15"/>
+    <n v="320.62"/>
+    <n v="952.13"/>
+    <n v="682.08"/>
+    <n v="346.77"/>
+    <n v="668.68"/>
+    <n v="1671.13"/>
+    <n v="2333.27"/>
+    <n v="1716.22"/>
+    <n v="495.01"/>
+    <n v="321.58999999999997"/>
+    <n v="374.89"/>
+    <n v="267.67"/>
+    <n v="109.26"/>
+  </r>
+  <r>
+    <s v="New Hampshire"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26.64"/>
+    <n v="129.13999999999999"/>
+    <n v="181.85"/>
+    <n v="82.1"/>
+    <n v="58.15"/>
+    <n v="50.23"/>
+    <n v="71.94"/>
+    <n v="204.57"/>
+    <n v="719.4"/>
+    <n v="1672.12"/>
+    <n v="1572.89"/>
+    <n v="706.26"/>
+    <n v="635.34"/>
+    <n v="777.48"/>
+    <n v="278.76"/>
+    <n v="24.83"/>
+  </r>
+  <r>
+    <s v="New Jersey"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="201.27"/>
+    <n v="1076.07"/>
+    <n v="449.92"/>
+    <n v="140.77000000000001"/>
+    <n v="107.81"/>
+    <n v="109.86"/>
+    <n v="143.41999999999999"/>
+    <n v="351.14"/>
+    <n v="1070.6600000000001"/>
+    <n v="1509.83"/>
+    <n v="2340.94"/>
+    <n v="996.05"/>
+    <n v="1286.02"/>
+    <n v="951.77"/>
+    <n v="205.73"/>
+    <n v="32.549999999999997"/>
+  </r>
+  <r>
+    <s v="New Mexico"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14.88"/>
+    <n v="146.21"/>
+    <n v="202.03"/>
+    <n v="210.53"/>
+    <n v="399.19"/>
+    <n v="224.41"/>
+    <n v="192.82"/>
+    <n v="805.42"/>
+    <n v="2389.8200000000002"/>
+    <n v="2163"/>
+    <n v="1471.86"/>
+    <n v="522.69000000000005"/>
+    <n v="307.91000000000003"/>
+    <n v="287.18"/>
+    <n v="240.28"/>
+    <n v="57.76"/>
+  </r>
+  <r>
+    <s v="New York"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="377.26"/>
+    <n v="1155.79"/>
+    <n v="326.11"/>
+    <n v="111.71"/>
+    <n v="106.83"/>
+    <n v="97.8"/>
+    <n v="118.26"/>
+    <n v="241.84"/>
+    <n v="695.63"/>
+    <n v="1615.21"/>
+    <n v="2183.65"/>
+    <n v="1108.6400000000001"/>
+    <n v="1126.02"/>
+    <n v="864.93"/>
+    <n v="268.85000000000002"/>
+    <n v="32.369999999999997"/>
+  </r>
+  <r>
+    <s v="North Carolina"/>
+    <n v="37"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14.63"/>
+    <n v="86.02"/>
+    <n v="174.14"/>
+    <n v="348.47"/>
+    <n v="548.94000000000005"/>
+    <n v="436.99"/>
+    <n v="412.05"/>
+    <n v="611.16"/>
+    <n v="863.68"/>
+    <n v="1686.9"/>
+    <n v="2079.5100000000002"/>
+    <n v="971.02"/>
+    <n v="535.75"/>
+    <n v="528.22"/>
+    <n v="299.77"/>
+    <n v="63.23"/>
+  </r>
+  <r>
+    <s v="North Dakota"/>
+    <n v="38"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="16.170000000000002"/>
+    <n v="120.78"/>
+    <n v="194.2"/>
+    <n v="129"/>
+    <n v="370.69"/>
+    <n v="686.31"/>
+    <n v="1287.26"/>
+    <n v="2833.03"/>
+    <n v="4535.6499999999996"/>
+    <n v="1699.92"/>
+    <n v="661.41"/>
+    <n v="280.33"/>
+    <n v="421.52"/>
+    <n v="562.32000000000005"/>
+    <n v="317.16000000000003"/>
+    <n v="61.87"/>
+  </r>
+  <r>
+    <s v="Ohio"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="18.64"/>
+    <n v="134.13999999999999"/>
+    <n v="148.19"/>
+    <n v="137.94"/>
+    <n v="333.66"/>
+    <n v="271.18"/>
+    <n v="261.27999999999997"/>
+    <n v="522.99"/>
+    <n v="1740.47"/>
+    <n v="2367.1999999999998"/>
+    <n v="1656.11"/>
+    <n v="607.05999999999995"/>
+    <n v="424.97"/>
+    <n v="463.97"/>
+    <n v="251.05"/>
+    <n v="41.21"/>
+  </r>
+  <r>
+    <s v="Oklahoma"/>
+    <n v="40"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14.3"/>
+    <n v="77.08"/>
+    <n v="72.94"/>
+    <n v="183.14"/>
+    <n v="573.29999999999995"/>
+    <n v="562.64"/>
+    <n v="718.96"/>
+    <n v="898.2"/>
+    <n v="1893.82"/>
+    <n v="2353.69"/>
+    <n v="2488.69"/>
+    <n v="884.89"/>
+    <n v="349.96"/>
+    <n v="251.08"/>
+    <n v="122.92"/>
+    <n v="30.86"/>
+  </r>
+  <r>
+    <s v="Oregon"/>
+    <n v="41"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="16.260000000000002"/>
+    <n v="42.95"/>
+    <n v="40.9"/>
+    <n v="105.07"/>
+    <n v="231.64"/>
+    <n v="193.83"/>
+    <n v="161.21"/>
+    <n v="268.31"/>
+    <n v="720.54"/>
+    <n v="908.02"/>
+    <n v="672.32"/>
+    <n v="311.05"/>
+    <n v="222.22"/>
+    <n v="467.87"/>
+    <n v="394.67"/>
+    <n v="78.75"/>
+  </r>
+  <r>
+    <s v="Pennsylvania"/>
+    <n v="42"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="38.43"/>
+    <n v="332.45"/>
+    <n v="215.29"/>
+    <n v="115.42"/>
+    <n v="196.58"/>
+    <n v="169.6"/>
+    <n v="194.54"/>
+    <n v="374.39"/>
+    <n v="1185.56"/>
+    <n v="2146.39"/>
+    <n v="1554.94"/>
+    <n v="674.22"/>
+    <n v="726.8"/>
+    <n v="967.73"/>
+    <n v="388.45"/>
+    <n v="46.66"/>
+  </r>
+  <r>
+    <s v="Rhode Island"/>
+    <n v="44"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="44.47"/>
+    <n v="741.13"/>
+    <n v="574.73"/>
+    <n v="171.77"/>
+    <n v="201.3"/>
+    <n v="266.73"/>
+    <n v="255.06"/>
+    <n v="740.49"/>
+    <n v="2173.27"/>
+    <n v="2845.51"/>
+    <n v="2413.84"/>
+    <n v="1019.16"/>
+    <n v="1066.81"/>
+    <n v="989.36"/>
+    <n v="324.14"/>
+    <n v="42.83"/>
+  </r>
+  <r>
+    <s v="South Carolina"/>
+    <n v="45"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21.16"/>
+    <n v="97.92"/>
+    <n v="112.65"/>
+    <n v="479.41"/>
+    <n v="1027.99"/>
+    <n v="585.65"/>
+    <n v="565.6"/>
+    <n v="560.13"/>
+    <n v="798.59"/>
+    <n v="1758.74"/>
+    <n v="2654.7"/>
+    <n v="1434.76"/>
+    <n v="680.03"/>
+    <n v="528.07000000000005"/>
+    <n v="285.3"/>
+    <n v="30.15"/>
+  </r>
+  <r>
+    <s v="South Dakota"/>
+    <n v="46"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12.07"/>
+    <n v="264.25"/>
+    <n v="286.8"/>
+    <n v="199.74"/>
+    <n v="225.56"/>
+    <n v="535.15"/>
+    <n v="1001.5"/>
+    <n v="2661.99"/>
+    <n v="3887.82"/>
+    <n v="2109.02"/>
+    <n v="1024.74"/>
+    <n v="471.09"/>
+    <n v="601.35"/>
+    <n v="552.74"/>
+    <n v="172.67"/>
+    <n v="17.14"/>
+  </r>
+  <r>
+    <s v="Tennessee"/>
+    <n v="47"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="29.65"/>
+    <n v="122.37"/>
+    <n v="178.36"/>
+    <n v="289.14999999999998"/>
+    <n v="872.96"/>
+    <n v="707.42"/>
+    <n v="597.96"/>
+    <n v="919.8"/>
+    <n v="1584.31"/>
+    <n v="2983.24"/>
+    <n v="2036.09"/>
+    <n v="693.72"/>
+    <n v="525.25"/>
+    <n v="511.11"/>
+    <n v="219.47"/>
+    <n v="59.98"/>
+  </r>
+  <r>
+    <s v="Texas"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="0.04"/>
+    <n v="12.27"/>
+    <n v="87.44"/>
+    <n v="123.18"/>
+    <n v="349.04"/>
+    <n v="948.3"/>
+    <n v="676.7"/>
+    <n v="493.08"/>
+    <n v="581.29999999999995"/>
+    <n v="1058.45"/>
+    <n v="1744.98"/>
+    <n v="2066.98"/>
+    <n v="951.51"/>
+    <n v="479.48"/>
+    <n v="340.44"/>
+    <n v="201.34"/>
+    <n v="79.400000000000006"/>
+  </r>
+  <r>
+    <s v="Utah"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="27.08"/>
+    <n v="115.69"/>
+    <n v="157.63"/>
+    <n v="383.14"/>
+    <n v="546.95000000000005"/>
+    <n v="363.98"/>
+    <n v="638.42999999999995"/>
+    <n v="1272.06"/>
+    <n v="2478.1"/>
+    <n v="2471.81"/>
+    <n v="2139.98"/>
+    <n v="753.97"/>
+    <n v="440.42"/>
+    <n v="357.25"/>
+    <n v="270.57"/>
+    <n v="97.66"/>
+  </r>
+  <r>
+    <s v="Vermont"/>
+    <n v="50"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="45.56"/>
+    <n v="89.1"/>
+    <n v="17.88"/>
+    <n v="35.299999999999997"/>
+    <n v="32.03"/>
+    <n v="32.659999999999997"/>
+    <n v="19.899999999999999"/>
+    <n v="66.400000000000006"/>
+    <n v="309.92"/>
+    <n v="503.83"/>
+    <n v="708"/>
+    <n v="502.74"/>
+    <n v="633.98"/>
+    <n v="571.78"/>
+    <n v="197.18"/>
+    <n v="15.55"/>
+  </r>
+  <r>
+    <s v="Virginia"/>
+    <n v="51"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14.47"/>
+    <n v="169.12"/>
+    <n v="333.21"/>
+    <n v="210.63"/>
+    <n v="313.98"/>
+    <n v="355.75"/>
+    <n v="320.66000000000003"/>
+    <n v="381.39"/>
+    <n v="656.27"/>
+    <n v="1294.68"/>
+    <n v="1798.03"/>
+    <n v="825.72"/>
+    <n v="497.32"/>
+    <n v="470.54"/>
+    <n v="184.77"/>
+    <n v="24.71"/>
+  </r>
+  <r>
+    <s v="Washington"/>
+    <n v="53"/>
+    <n v="0.01"/>
+    <n v="0.12"/>
+    <n v="68.56"/>
+    <n v="123.56"/>
+    <n v="103.82"/>
+    <n v="152.19"/>
+    <n v="313.86"/>
+    <n v="246.49"/>
+    <n v="179.64"/>
+    <n v="272.8"/>
+    <n v="773.43"/>
+    <n v="1023.83"/>
+    <n v="839.75"/>
+    <n v="348.79"/>
+    <n v="314.89"/>
+    <n v="494.01"/>
+    <n v="422.15"/>
+    <n v="110.4"/>
+  </r>
+  <r>
+    <s v="West Virginia"/>
+    <n v="54"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9.0299999999999994"/>
+    <n v="53.74"/>
+    <n v="49.28"/>
+    <n v="49.84"/>
+    <n v="208.39"/>
+    <n v="201.15"/>
+    <n v="312.08999999999997"/>
+    <n v="480.12"/>
+    <n v="1303.55"/>
+    <n v="2090.19"/>
+    <n v="1988.44"/>
+    <n v="605.11"/>
+    <n v="550.98"/>
+    <n v="634.99"/>
+    <n v="454.87"/>
+    <n v="92.1"/>
+  </r>
+  <r>
+    <s v="Wisconsin"/>
+    <n v="55"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="22.91"/>
+    <n v="95.39"/>
+    <n v="198.7"/>
+    <n v="221.24"/>
+    <n v="429.22"/>
+    <n v="402.34"/>
+    <n v="821.88"/>
+    <n v="1844.3"/>
+    <n v="2949.92"/>
+    <n v="1844.47"/>
+    <n v="1216.58"/>
+    <n v="428.25"/>
+    <n v="320.17"/>
+    <n v="414.2"/>
+    <n v="237"/>
+    <n v="28.13"/>
+  </r>
+  <r>
+    <s v="Wyoming"/>
+    <n v="56"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20.98"/>
+    <n v="75.930000000000007"/>
+    <n v="59.63"/>
+    <n v="101.24"/>
+    <n v="214.79"/>
+    <n v="193.46"/>
+    <n v="365.09"/>
+    <n v="1274.1600000000001"/>
+    <n v="3468.31"/>
+    <n v="1924.93"/>
+    <n v="1300.68"/>
+    <n v="430.27"/>
+    <n v="332.15"/>
+    <n v="317.58999999999997"/>
+    <n v="347.06"/>
+    <n v="168.33"/>
+  </r>
+  <r>
+    <s v="Puerto Rico"/>
+    <n v="72"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.27"/>
+    <n v="39.5"/>
+    <n v="68.14"/>
+    <n v="112.27"/>
+    <n v="283.52"/>
+    <n v="499.65"/>
+    <n v="473.42"/>
+    <n v="528.72"/>
+    <n v="609.64"/>
+    <n v="722.67"/>
+    <n v="527.5"/>
+    <n v="203.08"/>
+    <n v="207.19"/>
+    <n v="740.5"/>
+    <n v="220.73"/>
+    <n v="19.260000000000002"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{070F7269-39EE-4064-8B53-B2484FCAAA3A}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:R4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="20">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
+    <i i="11">
+      <x v="11"/>
+    </i>
+    <i i="12">
+      <x v="12"/>
+    </i>
+    <i i="13">
+      <x v="13"/>
+    </i>
+    <i i="14">
+      <x v="14"/>
+    </i>
+    <i i="15">
+      <x v="15"/>
+    </i>
+    <i i="16">
+      <x v="16"/>
+    </i>
+    <i i="17">
+      <x v="17"/>
+    </i>
+  </colItems>
+  <dataFields count="18">
+    <dataField name="Max of 1/1/2020" fld="2" subtotal="max" baseField="0" baseItem="510378016"/>
+    <dataField name="Max of 2/1/2020" fld="3" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 3/1/2020" fld="4" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 4/1/2020" fld="5" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 5/1/2020" fld="6" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 6/1/2020" fld="7" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 7/1/2020" fld="8" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 8/1/2020" fld="9" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 9/1/2020" fld="10" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 10/1/2020" fld="11" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 11/1/2020" fld="12" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 12/1/2020" fld="13" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 1/1/2021" fld="14" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 2/1/2021" fld="15" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 3/1/2021" fld="16" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 4/1/2021" fld="17" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 5/1/2021" fld="18" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Max of 6/1/2021" fld="19" subtotal="max" baseField="0" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,11 +2518,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0504F0-8C73-417D-8156-6A5FF240D737}">
+  <dimension ref="A3:R4"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:R4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="C4" s="4">
+        <v>377.26</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1155.79</v>
+      </c>
+      <c r="E4" s="4">
+        <v>649.41</v>
+      </c>
+      <c r="F4" s="4">
+        <v>831.48</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1476.22</v>
+      </c>
+      <c r="H4" s="4">
+        <v>817.32</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1287.26</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2833.03</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4535.6499999999996</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2983.24</v>
+      </c>
+      <c r="M4" s="4">
+        <v>3282.49</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1434.76</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1286.02</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1882.97</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>561.44000000000005</v>
+      </c>
+      <c r="R4" s="4">
+        <v>168.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5645B7FE-26CA-4905-BB50-43F46DBEEDB7}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>377.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1155.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>649.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>831.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1476.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>817.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1287.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2833.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4535.6499999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2983.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3282.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1434.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1286.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1882.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>561.44000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>168.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4389,13 +6062,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W28" workbookViewId="0">
-      <selection activeCell="AK52" sqref="AK52"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
